--- a/TrackingSheet.xlsx
+++ b/TrackingSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmusham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6D4D57-6EC3-48DD-A1B9-C36A7D4308A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 19" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -99,12 +94,18 @@
   </si>
   <si>
     <t xml:space="preserve">Watched Git videos </t>
+  </si>
+  <si>
+    <t>https://github.com/VarshaMusham/iTransformTracker.git</t>
+  </si>
+  <si>
+    <t>https://github.com/VarshaMusham/GitAssignment.git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
@@ -757,11 +758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -771,7 +772,7 @@
     <col min="5" max="5" width="13.1796875" customWidth="1"/>
     <col min="6" max="6" width="43.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.6328125" customWidth="1"/>
-    <col min="8" max="8" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.81640625" customWidth="1"/>
     <col min="9" max="9" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -842,7 +843,7 @@
       <c r="H4" s="22"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="11">
         <v>43690</v>
       </c>
@@ -857,10 +858,12 @@
         <v>22</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="11">
         <v>43691</v>
       </c>
@@ -875,7 +878,9 @@
         <v>21</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="23"/>
+      <c r="H6" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">

--- a/TrackingSheet.xlsx
+++ b/TrackingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6D4D57-6EC3-48DD-A1B9-C36A7D4308A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238228F0-B33F-4CE7-9796-EC0DF1D4F630}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>https://github.com/VarshaMusham/GitAssignment.git</t>
+  </si>
+  <si>
+    <t>1 hr 45 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tried to do assignments </t>
   </si>
 </sst>
 </file>
@@ -762,7 +768,7 @@
   <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,14 +876,18 @@
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="22" t="s">
         <v>24</v>
       </c>

--- a/TrackingSheet.xlsx
+++ b/TrackingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238228F0-B33F-4CE7-9796-EC0DF1D4F630}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93573C4-18D6-4060-BC07-03F0655F6501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>1 hr 45 min</t>
   </si>
   <si>
-    <t xml:space="preserve">Tried to do assignments </t>
+    <t>Completed the assignment till 20</t>
   </si>
 </sst>
 </file>

--- a/TrackingSheet.xlsx
+++ b/TrackingSheet.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93573C4-18D6-4060-BC07-03F0655F6501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833B2FF9-59E9-4F45-BFD2-EB9FC6CB676E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Aug 19" sheetId="1" r:id="rId1"/>
+    <sheet name="March2021" sheetId="1" r:id="rId1"/>
+    <sheet name="Priority List" sheetId="2" r:id="rId2"/>
+    <sheet name="Next Week Plan" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +108,48 @@
   </si>
   <si>
     <t>Completed the assignment till 20</t>
+  </si>
+  <si>
+    <t>Topics Priority</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Spring MVC</t>
+  </si>
+  <si>
+    <t>Core Java 8</t>
+  </si>
+  <si>
+    <t>Spring Rest</t>
+  </si>
+  <si>
+    <t>HTML 5 &amp; CSS 3</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>Angular Features</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Spring Boot or Core Java 8</t>
+  </si>
+  <si>
+    <t>Thrusday</t>
+  </si>
+  <si>
+    <t>Topics to be done parallely</t>
   </si>
 </sst>
 </file>
@@ -140,13 +184,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -382,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -450,6 +500,13 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -849,7 +906,7 @@
       <c r="H4" s="22"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="11">
         <v>43690</v>
       </c>
@@ -857,54 +914,49 @@
         <v>5</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="22" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="11">
-        <v>43691</v>
+        <v>44272</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="11">
-        <v>43692</v>
+        <v>44273</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="23"/>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
@@ -1157,4 +1209,149 @@
     <oddFooter>&amp;CCapgemini Public</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505DF304-59EA-42F6-BE65-959CC7120041}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA725D8-10D9-4CE0-B976-8F565433B43B}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>